--- a/docs/ST1a/ST1a_31.07.24_output.xlsx
+++ b/docs/ST1a/ST1a_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731663037.3419316</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731663042.6306038</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731663037.3419316.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731663042.6306038.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>288.93</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.99</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.060000000000002</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731663042.647532</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731663045.797566</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731663042.647532.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731663045.797566.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.99</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.18</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.8100000000000023</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731663045.8135233</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731663045.8135233.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731663045.8135233.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.18</v>
       </c>
-      <c r="J5" t="n">
-        <v>289.18</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>289.15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03000000000002956</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731663059.019833</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731663064.6854348</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731663059.019833.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731663064.6854348.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>132.76</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.7400000000000091</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731663070.0875268</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731663073.1452613</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731663070.0875268.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731663073.1452613.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.66</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.38</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731663073.558544</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731663083.0546305</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731663073.558544.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731663083.0546305.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.33</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.18</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731663085.3524046</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731663096.0340958</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731663085.3524046.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731663096.0340958.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6789</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>5.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731663096.0500262</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731663102.7958581</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731663096.0500262.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731663102.7958581.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6789</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6745</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-44</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731663124.069301</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731663127.0718827</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731663124.069301.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731663127.0718827.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>513.35</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>513.95</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731663130.221909</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731663133.8171484</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731663130.221909.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731663133.8171484.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>514.1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>513.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731663134.0091524</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731663136.2488601</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731663134.0091524.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731663136.2488601.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>514.05</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>513.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5499999999999545</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731663148.5299473</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731663152.7304769</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731663148.5299473.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731663152.7304769.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1037</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1040.6</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-3.599999999999909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731663152.7464337</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731663156.1764565</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731663152.7464337.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731663156.1764565.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1040.6</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1043.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731663170.8814604</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731663177.7061083</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731663170.8814604.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731663177.7061083.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>11.95</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>11.97</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.02000000000000135</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731663177.8547776</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731663195.1280484</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731663177.8547776.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731663195.1280484.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>11.967</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>11.865</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1020000000000003</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.8500000000000001</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731663203.5426698</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731663211.5319393</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731663203.5426698.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731663211.5319393.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>129.48</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.97999999999999</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-1.55</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731663211.6368244</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731663213.503495</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731663211.6368244.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731663213.503495.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>130.66</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.259999999999991</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -1415,95 +1533,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731663215.1349804</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731663215.1349804.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731663215.1349804.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.88</v>
       </c>
-      <c r="J20" t="n">
-        <v>129.88</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>129.82</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731663237.632445</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731663240.9325066</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731663237.632445.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731663240.9325066.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>165.12</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>165.56</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731663261.4341471</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731663264.9289355</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731663261.4341471.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731663264.9289355.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>51.07</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>50.985</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.08500000000000085</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731663274.087051</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731663278.6721687</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731663274.087051.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731663278.6721687.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>50.715</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>50.795</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731663282.3465786</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731663289.0928814</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731663282.3465786.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731663289.0928814.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1425.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1418.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-7.200000000000045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731663289.1088393</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731663292.1932528</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731663289.1088393.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731663292.1932528.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1418.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1416.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2.199999999999818</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731663292.4541717</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731663295.5090532</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731663292.4541717.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731663295.5090532.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1414.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1417</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731663308.3857872</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731663315.555567</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731663308.3857872.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731663315.555567.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>61.11</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>60.95</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731663315.6443536</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731663319.2143161</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731663315.6443536.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731663319.2143161.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>60.98</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>60.87</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731663319.7000768</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731663322.3467717</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731663319.7000768.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731663322.3467717.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>60.82</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>60.92</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731663324.5127118</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731663326.1243577</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731663324.5127118.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731663326.1243577.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>60.76</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>60.55</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731663342.7258563</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731663345.5461047</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/SELG1731663342.7258563.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/SELG1731663345.5461047.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>57.72</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>57.89</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.1700000000000017</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2031,95 +2221,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731663353.6235337</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731663353.6235337.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731663353.6235337.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>57.9</v>
       </c>
-      <c r="J32" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>58.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.8999999999999986</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731663361.222988</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731663364.0999048</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731663361.222988.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731663364.0999048.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>142.22</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>142.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.5800000000000125</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2127,95 +2329,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731663378.0990994</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731663378.0990994.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731663378.0990994.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>143.94</v>
       </c>
-      <c r="J34" t="n">
-        <v>143.94</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>143.66</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731663387.411676</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731663400.4797115</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731663387.411676.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731663400.4797115.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>85.36</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>84.98</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731663412.9598348</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731663417.4021559</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731663412.9598348.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731663417.4021559.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>376.23</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>373.5</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2.730000000000018</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.73</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731663423.7582717</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731663426.8625638</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731663423.7582717.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731663426.8625638.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>374.44</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>373.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.6399999999999864</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2327,95 +2553,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731663426.8795183</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731663426.8795183.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731663426.8795183.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>373.8</v>
       </c>
-      <c r="J38" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>376.43</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-2.629999999999995</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731663437.7193618</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731663438.7234132</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/FEES1731663437.7193618.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/FEES1731663438.7234132.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>0.09754</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.0984</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0008599999999999997</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731663440.4309444</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731663444.5049615</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731663440.4309444.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731663444.5049615.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>0.09812000000000001</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.09822</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>9.999999999998899e-05</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731663444.879819</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731663450.6806176</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731663444.879819.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731663450.6806176.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.09964000000000001</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.001019999999999993</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-1.03</v>
       </c>
     </row>
@@ -2527,95 +2777,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731663450.8550491</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731663450.8550491.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731663450.8550491.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.09950000000000001</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0004199999999999898</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731663464.5054934</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731663470.2023742</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731663464.5054934.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731663470.2023742.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>34.735</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>34.68</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2677,19 +2939,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6.000000000000449e-05</v>
+        <v>0.0003599999999999853</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.500000000000112e-05</v>
+        <v>8.999999999999633e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05000000000000004</v>
+        <v>0.3699999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -2721,19 +2983,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.870000000000005</v>
+        <v>-1.839999999999975</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6233333333333348</v>
+        <v>-0.613333333333325</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-0.64</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="5">
@@ -2743,19 +3005,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.370000000000005</v>
+        <v>-6</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.123333333333335</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8999999999999999</v>
+        <v>-1.6</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="6">
@@ -2809,19 +3071,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7199999999999989</v>
+        <v>-0.6599999999999966</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2399999999999996</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5800000000000001</v>
+        <v>-0.53</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="9">
@@ -2919,19 +3181,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5800000000000125</v>
+        <v>0.8600000000000136</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2900000000000063</v>
+        <v>0.4300000000000068</v>
       </c>
       <c r="E13" t="n">
-        <v>0.41</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -2963,19 +3225,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1700000000000017</v>
+        <v>-1.07</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08500000000000085</v>
+        <v>-0.5350000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.29</v>
+        <v>-1.84</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.14</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="16">
